--- a/2_后记.xlsx
+++ b/2_后记.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609B6969-A70F-438A-AE3E-F09A9C29C6DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,14 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t>参考的曲目包括但不限于：（公司电脑打不出日文）</t>
-  </si>
-  <si>
-    <t>副本内的很多技能名、机制效果、副本整体氛围的灵感都来源于一个我个人很喜欢的歌手hazuki yura（twitter：@）。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>（暂未询问她本人的意见</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,14 +84,6 @@
     <t>黄昏旋转木马：</t>
   </si>
   <si>
-    <t>机制名字来源于eclipse parade中的一句歌词“（公司电脑打不出日文）”，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包括机制内容也是想尽量表现出mawaru、kuzureru的感觉。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>梦幻paradise：</t>
   </si>
   <si>
@@ -134,14 +120,83 @@
   </si>
   <si>
     <t>八名玩家共同在正确的时间点做出正确的操作，再配合上副本的机制内容、演出、BGM等等，所有要素加在一起共同构成了一场完美的副本。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考的曲目包括但不限于：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜明けのソナチネ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>アレキサンドライトと黒の魔女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡蝶のワルツ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eclipse Parade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Strange Circus </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>黒い炎の少女～</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机制名字来源于eclipse parade中的一句歌词：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄昏メリーゴーランド　巡る運命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廻り廻れ壊れ崩れて　塵へと消える</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括机制内容也是想尽量表现出「廻る」、「崩れる」的感觉。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葉月ゆら（twitter：@yura_hatuki）</t>
+  </si>
+  <si>
+    <t>副本内的很多技能名、机制效果、副本整体氛围的灵感都来源于一个我个人很喜欢的歌手：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +229,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -198,19 +268,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -225,8 +298,57 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>86139</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>133287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>72886</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>73400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12106862-07B6-7920-3C61-7F35B3172386}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8010939" y="4970330"/>
+          <a:ext cx="2425147" cy="3292913"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -301,6 +423,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -336,6 +475,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -511,199 +667,240 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="10.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C10" t="s">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C18" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C11" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C15" s="3" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B17" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C18" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C19" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B21" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C22" t="s">
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C23" t="s">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A26" s="2" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B27" t="s">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C28" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C29" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B31" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C32" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B34" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C35" t="s">
+    <row r="46" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C36" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B38" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C39" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A42" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B44" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B45" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{CBF45B3B-42FB-4E2F-843E-32E17C5A5E37}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/2_后记.xlsx
+++ b/2_后记.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609B6969-A70F-438A-AE3E-F09A9C29C6DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -103,10 +102,6 @@
   </si>
   <si>
     <t>爱丽丝剧场：</t>
-  </si>
-  <si>
-    <t>机制的核心在于“误导”，例如逐渐随眠debuff、缩小旋律、最后的三连abracadabra</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>其他</t>
@@ -191,11 +186,15 @@
     <t>副本内的很多技能名、机制效果、副本整体氛围的灵感都来源于一个我个人很喜欢的歌手：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>机制的核心在于“误导”，例如逐渐随眠debuff、缩小旋律</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -318,7 +317,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12106862-07B6-7920-3C61-7F35B3172386}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{12106862-07B6-7920-3C61-7F35B3172386}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -348,7 +347,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -423,23 +422,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -475,23 +457,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -667,19 +632,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="10" max="10" width="10.21875" customWidth="1"/>
+    <col min="10" max="10" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -688,73 +653,73 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
         <v>29</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="E4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="E5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E5" t="s">
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="E7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
@@ -763,47 +728,47 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C18" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>16</v>
       </c>
@@ -812,92 +777,92 @@
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C31" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31" t="s">
         <v>35</v>
       </c>
-      <c r="H31" t="s">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H32" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C36" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C39" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C40" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C43" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A46" s="2" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B49" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{CBF45B3B-42FB-4E2F-843E-32E17C5A5E37}"/>
+    <hyperlink ref="K2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/2_后记.xlsx
+++ b/2_后记.xlsx
@@ -138,32 +138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Strange Circus </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>～</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>黒い炎の少女～</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>机制名字来源于eclipse parade中的一句歌词：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -188,6 +162,10 @@
   </si>
   <si>
     <t>机制的核心在于“误导”，例如逐渐随眠debuff、缩小旋律</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strange Circus ～黒い炎の少女～</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -195,7 +173,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,37 +189,43 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -269,16 +253,19 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -308,16 +295,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>72886</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>73400</xdr:rowOff>
+      <xdr:colOff>72887</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>98248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{12106862-07B6-7920-3C61-7F35B3172386}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12106862-07B6-7920-3C61-7F35B3172386}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -633,233 +620,242 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="10" max="10" width="10.25" customWidth="1"/>
+    <col min="1" max="9" width="9" style="3"/>
+    <col min="10" max="10" width="10.25" style="3" customWidth="1"/>
+    <col min="11" max="12" width="9" style="3"/>
+    <col min="13" max="13" width="12" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E4" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E5" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E6" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E7" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C12" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C13" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C18" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C22" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B24" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C25" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C26" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H32" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C33" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B35" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C36" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B38" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C39" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C40" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B42" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C43" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="E5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C18" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C31" t="s">
-        <v>34</v>
-      </c>
-      <c r="H31" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="H32" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C33" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B35" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B38" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C39" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C40" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B42" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C43" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A46" s="2" t="s">
+    </row>
+    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B47" t="s">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B47" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B48" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B48" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B49" t="s">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" s="3" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K2:M2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1"/>
